--- a/MMTestCase.xlsx
+++ b/MMTestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터생성 및 튜토리얼" sheetId="1" r:id="rId1"/>
@@ -28,47 +28,47 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>대분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">재현스탭 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기대 결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>우선순위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BTS No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC-02</t>
@@ -112,63 +112,63 @@
   <si>
     <t>캐릭터
 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입력값
 유효성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>빈 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중복 닉네임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시스템 반응</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>닉네임 입력칸에 비운 상태에서 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이미 있는 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특수문자 포함된 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상적인 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>커스터마이징</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유료 옵션 제한</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터로 생성 시 환생 캐릭터 전용 커스터마이징 항목이 노출되지 않거나 선택 불가한지 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>해당 옵션은 비활성화되거나 잠금 표시가 되어 선택 불가능해야 함</t>
   </si>
   <si>
     <t>추가로 경고 메시지가 있으면 더 좋을 것 같다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pass</t>
@@ -184,43 +184,43 @@
   </si>
   <si>
     <t>1자 닉네임 입력 후 생성 시도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13자 이상 닉네임 입력후 생성 시도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중복된 닉네임이라는 경고 메시지를 출력하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>닉네임을 입력하라는 경고 메시지 또는 시각적 반응이 발생하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최소 입력 길이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최대 입력 길이 초과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>초과 입력 차단되거나 생성버튼 비활성화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지 또는 입력란 반응이 발생하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터가 정상적으로 생성되고, 캐릭터 선택 화면으로 이동한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>High</t>
@@ -230,142 +230,142 @@
   </si>
   <si>
     <t>만들기 -&gt; 게임시작을 눌러야 중복여부 체크가 되는데 중복되지않으면 생성되는게 아니라 별다른 동작없이 바로 확인이 가능하면 좋을 것 같다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지와 함께 비활성화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특수문자 및 입력불가 단어 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지를 출력하며 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특수 문자, 공백 안된다. Admin을 닉네임으로 사용이 불가능하다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 UI 표시되며, 닉네임 설정 단계로 넘어갈 수 없다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>건너뛰기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이전 화면으로 되돌아온다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컷 씬 스킵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 화면을 길게 눌러 컷씬 스킵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중단 상황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>앱 종료후 재접속</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI 표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드 메시지 안내에 맞는 키를 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>메시지 안내에 맞는 입력을 수행하면 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버튼 클릭 반응</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드 안내에 따라 UI 버튼을 클릭한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상 반응하며 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전체 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>종료후 전환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼 진행 중 앱 강제 종료후 재접속</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컷신이 종료되고 다음 단계로 넘어간다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이전 진행된 곳 혹은 체크 포인트에서부터 재진행한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행 흐름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드하는 버튼외에 다른 키를 입력한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행에 막힘없이 단계 유지/무시 처리한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드 버튼 외 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구역 이탈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼 구역 외벽 방향 이동을 시도한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>벽막힘으로 이동 불가한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
     <t>포탈이 아닌 외곽쪽으로 걸어도 포탈이 이동되는 효과를 갖는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상적으로 티르코네일 마을에 진입하며 인게임 UI가 정상적으로 표시된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼을 모두 완료하고 컷신을 스킵하거나 모두 플레이한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전투 상황</t>
@@ -375,46 +375,46 @@
   </si>
   <si>
     <t>사망 처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사망 후 재시작하거나 사망에 관계없이 다음 단계를 진행한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>죽으면 즉시 부활하며, 자동으로 공격하는 상태가된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>플레이 힌트 스킵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>플레이 힌트 시작후 나중에 보기 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포탈 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포탈을 지나친다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다음 맵으로 이동한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>등록 예정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,29 +432,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -588,10 +579,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -599,61 +590,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="40% - 강조색4" xfId="2" builtinId="43"/>
-    <cellStyle name="경고문" xfId="1" builtinId="11"/>
+    <cellStyle name="20% - 강조색3" xfId="2" builtinId="38"/>
+    <cellStyle name="40% - 강조색4" xfId="1" builtinId="43"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,11 +925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A22"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
@@ -949,24 +940,24 @@
     <col min="12" max="15" width="71.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -982,11 +973,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -995,486 +986,487 @@
       <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="9"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="9"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="9"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="9"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="9"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="9"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="9"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="9"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="9"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="9"/>
+      <c r="K22" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1487,7 +1479,7 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D19:D21"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
@@ -1505,30 +1497,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:12">
-      <c r="B4" s="4"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1544,93 +1536,93 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MMTestCase.xlsx
+++ b/MMTestCase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haeseong\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F6ACDF-FFC6-4765-8741-19910BBD97A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860"/>
+    <workbookView xWindow="5565" yWindow="7155" windowWidth="28800" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터생성 및 튜토리얼" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,14 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초과 입력 차단되거나 생성버튼 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고 메시지 또는 입력란 반응이 발생하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터가 정상적으로 생성되고, 캐릭터 선택 화면으로 이동한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,10 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>특수 문자, 공백 안된다. Admin을 닉네임으로 사용이 불가능하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>경고 UI 표시되며, 닉네임 설정 단계로 넘어갈 수 없다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -356,10 +345,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>포탈이 아닌 외곽쪽으로 걸어도 포탈이 이동되는 효과를 갖는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정상적으로 티르코네일 마을에 진입하며 인게임 UI가 정상적으로 표시된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -406,14 +391,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>등록 예정</t>
+    <t>경고 메시지 '2자 이상 입력해주세요'가 표기되며, 입력칸이 진동하며, 캐릭터가 생성되지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 입력시 경고 메시지가 표기되며, 캐릭터가 생성되지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 문자, 공백 안된다. Admin을 닉네임으로 사용이 거부된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jira No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMQA-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈이 아닌 영역으로 걸어도 포탈이 이동되는 효과를 갖는다. (포탈 위치한 X축 경계를 넘으면 이동됨)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,29 +610,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,11 +930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -936,6 +947,7 @@
     <col min="6" max="6" width="80.625" customWidth="1"/>
     <col min="7" max="7" width="94.625" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="127.375" customWidth="1"/>
     <col min="12" max="15" width="71.375" customWidth="1"/>
   </cols>
@@ -967,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
@@ -980,16 +992,16 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -999,9 +1011,9 @@
         <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1013,12 +1025,12 @@
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1028,11 +1040,11 @@
         <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1042,24 +1054,24 @@
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1069,26 +1081,26 @@
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1098,26 +1110,26 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1127,26 +1139,26 @@
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1156,14 +1168,14 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1173,11 +1185,11 @@
         <v>39</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1187,28 +1199,28 @@
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>61</v>
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1218,24 +1230,24 @@
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1245,26 +1257,26 @@
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1274,26 +1286,26 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
-        <v>70</v>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1303,24 +1315,24 @@
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1330,26 +1342,26 @@
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1359,26 +1371,26 @@
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>80</v>
+      <c r="F19" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1388,28 +1400,28 @@
       <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>100</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1419,25 +1431,25 @@
       <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1446,28 +1458,28 @@
       <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1493,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1494,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/MMTestCase.xlsx
+++ b/MMTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F6ACDF-FFC6-4765-8741-19910BBD97A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F7ED3-BBCF-42BB-8F68-750FFA0DC5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="7155" windowWidth="28800" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터생성 및 튜토리얼" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>우선순위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTS No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -412,6 +408,252 @@
   </si>
   <si>
     <t>포탈이 아닌 영역으로 걸어도 포탈이 이동되는 효과를 갖는다. (포탈 위치한 X축 경계를 넘으면 이동됨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-28</t>
+  </si>
+  <si>
+    <t>TC-19</t>
+  </si>
+  <si>
+    <t>TC-20</t>
+  </si>
+  <si>
+    <t>TC-21</t>
+  </si>
+  <si>
+    <t>TC-22</t>
+  </si>
+  <si>
+    <t>TC-23</t>
+  </si>
+  <si>
+    <t>TC-24</t>
+  </si>
+  <si>
+    <t>TC-25</t>
+  </si>
+  <si>
+    <t>TC-26</t>
+  </si>
+  <si>
+    <t>TC-27</t>
+  </si>
+  <si>
+    <t>벌목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 채집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 채집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구 자동 교체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 체력 초기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건별 자동 채집 중단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌목 도끼를 장비한다 -&gt; 채집 가능한 나무를 채집한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 통나무를 선택한다 -&gt; 구하는 방법, 나무베기 선택 -&gt; 자동 채집 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼를 장비한 상태에서 인벤토리에 내구도가 남은 도끼를 보유 -&gt; 장착한 도끼를 내구도 0까지 사용 -&gt; 계속 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 도중 이동 키를 입력해 중단 -&gt; 같은 나무 재시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 나무 베는 애니메이션과 함께 채집이 시작되고 나무 체력이 0이되면 일정 확률로 내구도 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 채집이 목표 횟수를 달성할 때 까지 자동으로 반복된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내구도가 충분한 도끼로 자동으로 교체되고 채집을 계속한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 체력이 초기화 되어 처움부터 다시 채집한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 채집이 즉시 중단되며, 채집 시작 버튼이 활성화된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 가능 오브젝트 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 오브젝트 체력바 감소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 판정 텍스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 근처로 캐릭터를 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집을 진행하며 판정 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집을 진행하며 체력바 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어와 가까운 채집 가능한 나무에 이름이 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 위에 체력바가 감소된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률에 따라 좋아, 훌륭해, 우와~, 손끝이 살아있네 등이 표기된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 낚시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대를 장비하고 낙시터로 이동 -&gt; 자동 낚시로 설정 -&gt; 낚시 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 반복 낚시를 수행하며, 낚시 결과가 인벤토리에 반영된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 중단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미끼 소모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미끼를 장착 -&gt; 낚시 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">낚시중 이동 / 이동 키 입력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 채집중 인벤토리 가득 채움 / 이동키 입력 / 채집 중단 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 낚시가 중단된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 1회당 미끼 1개가 소모된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 소모 조건은 1회~N회 채집시 1소모되는 것 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 20% 이하에 다다르면 경고 UI가 출력된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 소모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 나무 베는 애니메이션과 함께 채집이 시작되고 나무 체력이 0이되면 나무 등급에 맞는 아이템 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3조건 모두 자동 채집이 정상 중단된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능의 핵심이며, 실패시 기능이 정상 작동하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 및 표기 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 핵심은 아니나 시스템,사용성과 밀접</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집 기능이 동작하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 소모안됨, 미끼 소모안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 체력바 누락, 나무이름 미표기 등</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +890,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -933,22 +1187,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:C12"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
     <col min="6" max="6" width="80.625" customWidth="1"/>
-    <col min="7" max="7" width="94.625" customWidth="1"/>
+    <col min="7" max="7" width="95.625" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="127.375" customWidth="1"/>
+    <col min="11" max="11" width="130.625" customWidth="1"/>
     <col min="12" max="15" width="71.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -979,10 +1234,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,32 +1245,32 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1023,28 +1278,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="13"/>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1052,24 +1307,24 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="13"/>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1079,28 +1334,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1108,28 +1363,28 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="14"/>
       <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1137,26 +1392,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1166,30 +1421,30 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1197,28 +1452,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1228,24 +1483,24 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="17"/>
       <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1255,26 +1510,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1284,26 +1539,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1313,24 +1568,24 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="17"/>
       <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1340,26 +1595,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1369,26 +1624,26 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1398,30 +1653,30 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="18"/>
       <c r="E20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1429,24 +1684,24 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="17"/>
       <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="7"/>
@@ -1456,30 +1711,30 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1509,11 +1764,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="80.625" customWidth="1"/>
+    <col min="8" max="8" width="95.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="130.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -1542,99 +1806,417 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>4</v>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D5:D13"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D18:E18"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16" xr:uid="{937AE100-9626-4AFA-A2DF-E7DD88FEBAD4}">
+      <formula1>"Pass, Fail, N/A, No Run"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16" xr:uid="{C315C102-9C1B-466E-A2BF-85751129A851}">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MMTestCase.xlsx
+++ b/MMTestCase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haeseong\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F7ED3-BBCF-42BB-8F68-750FFA0DC5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터생성 및 튜토리얼" sheetId="1" r:id="rId1"/>
     <sheet name="채집" sheetId="2" r:id="rId2"/>
+    <sheet name="던전" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,46 +26,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="238">
   <si>
     <t>대분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>소분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">재현스탭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기대 결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>우선순위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TC-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TC-02</t>
@@ -109,63 +109,63 @@
   <si>
     <t>캐릭터
 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>입력값
 유효성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>빈 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중복 닉네임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시스템 반응</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정상 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>닉네임 입력칸에 비운 상태에서 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이미 있는 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>특수문자 포함된 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정상적인 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>커스터마이징</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유료 옵션 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터로 생성 시 환생 캐릭터 전용 커스터마이징 항목이 노출되지 않거나 선택 불가한지 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>해당 옵션은 비활성화되거나 잠금 표시가 되어 선택 불가능해야 함</t>
   </si>
   <si>
     <t>추가로 경고 메시지가 있으면 더 좋을 것 같다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Pass</t>
@@ -181,35 +181,35 @@
   </si>
   <si>
     <t>1자 닉네임 입력 후 생성 시도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>13자 이상 닉네임 입력후 생성 시도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중복된 닉네임이라는 경고 메시지를 출력하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>닉네임을 입력하라는 경고 메시지 또는 시각적 반응이 발생하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최소 입력 길이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최대 입력 길이 초과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터가 정상적으로 생성되고, 캐릭터 선택 화면으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>High</t>
@@ -219,134 +219,134 @@
   </si>
   <si>
     <t>만들기 -&gt; 게임시작을 눌러야 중복여부 체크가 되는데 중복되지않으면 생성되는게 아니라 별다른 동작없이 바로 확인이 가능하면 좋을 것 같다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지와 함께 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>특수문자 및 입력불가 단어 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지를 출력하며 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>경고 UI 표시되며, 닉네임 설정 단계로 넘어갈 수 없다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>건너뛰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이전 화면으로 되돌아온다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>컷 씬 스킵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 화면을 길게 눌러 컷씬 스킵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중단 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>앱 종료후 재접속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가이드 메시지 안내에 맞는 키를 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>메시지 안내에 맞는 입력을 수행하면 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>진행 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>버튼 클릭 반응</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가이드 안내에 따라 UI 버튼을 클릭한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정상 반응하며 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>전체 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>종료후 전환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼 진행 중 앱 강제 종료후 재접속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>컷신이 종료되고 다음 단계로 넘어간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이전 진행된 곳 혹은 체크 포인트에서부터 재진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>진행 흐름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가이드하는 버튼외에 다른 키를 입력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>진행에 막힘없이 단계 유지/무시 처리한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가이드 버튼 외 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구역 이탈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼 구역 외벽 방향 이동을 시도한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>벽막힘으로 이동 불가한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
     <t>정상적으로 티르코네일 마을에 진입하며 인게임 UI가 정상적으로 표시된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼을 모두 완료하고 컷신을 스킵하거나 모두 플레이한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>전투 상황</t>
@@ -356,63 +356,63 @@
   </si>
   <si>
     <t>사망 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사망 후 재시작하거나 사망에 관계없이 다음 단계를 진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>죽으면 즉시 부활하며, 자동으로 공격하는 상태가된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>플레이 힌트 스킵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>플레이 힌트 시작후 나중에 보기 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>포탈 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>포탈을 지나친다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>다음 맵으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지 '2자 이상 입력해주세요'가 표기되며, 입력칸이 진동하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>초과 입력시 경고 메시지가 표기되며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>특수 문자, 공백 안된다. Admin을 닉네임으로 사용이 거부된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Jira No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MMQA-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>포탈이 아닌 영역으로 걸어도 포탈이 이동되는 효과를 갖는다. (포탈 위치한 X축 경계를 넘으면 이동됨)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TC-18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TC-28</t>
@@ -446,222 +446,1233 @@
   </si>
   <si>
     <t>벌목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>일반 채집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>자동 채집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>도구 자동 교체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 체력 초기화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>조건별 자동 채집 중단</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>벌목 도끼를 장비한다 -&gt; 채집 가능한 나무를 채집한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>인벤토리에서 통나무를 선택한다 -&gt; 구하는 방법, 나무베기 선택 -&gt; 자동 채집 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>도끼를 장비한 상태에서 인벤토리에 내구도가 남은 도끼를 보유 -&gt; 장착한 도끼를 내구도 0까지 사용 -&gt; 계속 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채집 도중 이동 키를 입력해 중단 -&gt; 같은 나무 재시도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터가 나무 베는 애니메이션과 함께 채집이 시작되고 나무 체력이 0이되면 일정 확률로 내구도 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>나무 채집이 목표 횟수를 달성할 때 까지 자동으로 반복된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">내구도가 충분한 도끼로 자동으로 교체되고 채집을 계속한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>나무 체력이 초기화 되어 처움부터 다시 채집한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>자동 채집이 즉시 중단되며, 채집 시작 버튼이 활성화된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채집 가능 오브젝트 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채집 오브젝트 체력바 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채집 판정 텍스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>나무 근처로 캐릭터를 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채집을 진행하며 판정 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채집을 진행하며 체력바 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>플레이어와 가까운 채집 가능한 나무에 이름이 나타난다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 위에 체력바가 감소된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>확률에 따라 좋아, 훌륭해, 우와~, 손끝이 살아있네 등이 표기된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>낚시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>자동 낚시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>낚시대를 장비하고 낙시터로 이동 -&gt; 자동 낚시로 설정 -&gt; 낚시 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>자동으로 반복 낚시를 수행하며, 낚시 결과가 인벤토리에 반영된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>낚시 중단</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>미끼 소모</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>미끼를 장착 -&gt; 낚시 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">낚시중 이동 / 이동 키 입력 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>자동 채집중 인벤토리 가득 채움 / 이동키 입력 / 채집 중단 버튼 클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>자동 낚시가 중단된다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>낚시 1회당 미끼 1개가 소모된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내구도 소모 조건은 1회~N회 채집시 1소모되는 것 같다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내구도 20% 이하에 다다르면 경고 UI가 출력된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내구도 소모</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터가 나무 베는 애니메이션과 함께 채집이 시작되고 나무 체력이 0이되면 나무 등급에 맞는 아이템 획득</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3조건 모두 자동 채집이 정상 중단된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>예시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기능의 핵심이며, 실패시 기능이 정상 작동하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI 및 표기 관련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기능 핵심은 아니나 시스템,사용성과 밀접</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>채집 기능이 동작하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내구도 소모안됨, 미끼 소모안됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 체력바 누락, 나무이름 미표기 등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TC-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>던전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반던전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Run</t>
+  </si>
+  <si>
+    <t>입장 (경계값 0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장 (일반값)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 부족 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 루팅 ON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 루팅 OFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>입장 성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 잔액 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>igh</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>알비 일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1F 1구역</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">은동전 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4개 이상 보유 -&gt; 입장 버튼 클릭</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은동전 3개보유 -&gt; 입장 버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은동전 3개 보유 -&gt; 입장 버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>재화 부족</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 팝업, 입장 불가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0개 차감, 클리어 보상 2배</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은동전 20개 이상 보유 -&gt;더블 루팅 도전 버튼(선택됨) 클릭 -&gt; 입장 버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은동전 10개 이상 보유 -&gt; 더블 루팅 도번 버튼 누르지 않고(도전) 입장 버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0개 차감, 클리어 보상 1배</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>알비 일반 1F 1구역</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>알비 일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1F 2구역</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>남쪽 폐어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 매우 어려움 2F 3구역</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 파티 구성 -&gt; 리더 입장</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈주 후 복귀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>입장후 한명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 강제 종료 -&gt; 재접속</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 플로우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신 스킵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 후 부활</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 등급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 상인 등장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>심층 던전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제화 부족 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 끊김 복구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백그라운드 복귀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>정상적으로 던전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 복귀</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티 입장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>양측 정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 입장, 재화 차감</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>보스 컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 재생 -&gt; 스킵 버튼 클릭</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>컷신 즉시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 종료, UI 표시</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>전투 중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP 0 -&gt; 부활 버튼</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>깃털 소모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 부활 성공, 버프 초기화</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>죽지 않고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 클리어</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 등급으로 클리어</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3구역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 던전 진행</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PC 등장, 거래가능, UI 표시</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마족 공물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개이상 보유 -&gt; 입장</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장 성공, 1개 차감</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장 성공, 3개 차감</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공물 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0개 -&gt; 입장</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>재화 부족</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 메시지, 입장 버튼 비활성화</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>입장 이후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 비행기 모드 ON</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>네트워크 연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 재시도 메시지</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>보상 단계까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 진행 -&gt; 홈버튼 -&gt; 60초대기 -&gt; 복귀</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">보상 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI 유지, 드랍 정상</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>라비 심층</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1F 3구역</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,81 +1837,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1184,11 +2210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
@@ -1247,10 +2273,10 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1280,8 +2306,8 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1309,8 +2335,8 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
@@ -1336,8 +2362,8 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1365,8 +2391,8 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
@@ -1394,7 +2420,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +2449,7 @@
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1454,10 +2480,10 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1485,8 +2511,8 @@
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
@@ -1512,7 +2538,7 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
@@ -1541,8 +2567,8 @@
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1570,8 +2596,8 @@
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="5" t="s">
         <v>67</v>
       </c>
@@ -1597,7 +2623,7 @@
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
@@ -1626,8 +2652,8 @@
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1655,8 +2681,8 @@
       <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="5" t="s">
         <v>92</v>
       </c>
@@ -1686,8 +2712,8 @@
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1713,7 +2739,7 @@
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="5" t="s">
         <v>85</v>
       </c>
@@ -1746,12 +2772,12 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D19:D21"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1761,11 +2787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1819,19 +2845,19 @@
       <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="20" t="s">
         <v>113</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1846,15 +2872,15 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="12" t="s">
         <v>123</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1875,15 +2901,15 @@
       <c r="C7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="12" t="s">
         <v>124</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -1902,15 +2928,15 @@
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="12" t="s">
         <v>125</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -1931,15 +2957,15 @@
       <c r="C9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="12" t="s">
         <v>126</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -1958,15 +2984,15 @@
       <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="12" t="s">
         <v>127</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1987,17 +3013,17 @@
       <c r="C11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="20" t="s">
         <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -2016,15 +3042,15 @@
       <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="12" t="s">
         <v>136</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -2043,15 +3069,15 @@
       <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="12" t="s">
         <v>137</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -2070,19 +3096,19 @@
       <c r="C14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="20" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="12" t="s">
         <v>141</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -2101,15 +3127,15 @@
       <c r="C15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="12" t="s">
         <v>147</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -2128,15 +3154,15 @@
       <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="12" t="s">
         <v>148</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -2152,10 +3178,10 @@
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5" t="s">
         <v>155</v>
       </c>
@@ -2164,11 +3190,11 @@
       <c r="C19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2176,11 +3202,11 @@
       <c r="C20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2188,11 +3214,11 @@
       <c r="C21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="14" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2208,15 +3234,575 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="D18:E18"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16" xr:uid="{937AE100-9626-4AFA-A2DF-E7DD88FEBAD4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16" xr:uid="{C315C102-9C1B-466E-A2BF-85751129A851}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="94.25" customWidth="1"/>
+    <col min="8" max="8" width="42.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="44.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="D5:D19"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19">
+      <formula1>"Pass, Fail, N/A, No Run"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MMTestCase.xlsx
+++ b/MMTestCase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haeseong\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75363C-70CE-43CF-8BA9-28930AD6C278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터생성 및 튜토리얼" sheetId="1" r:id="rId1"/>
@@ -26,46 +27,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="252">
   <si>
     <t>대분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">재현스탭 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기대 결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>우선순위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC-02</t>
@@ -109,63 +110,63 @@
   <si>
     <t>캐릭터
 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입력값
 유효성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>빈 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중복 닉네임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시스템 반응</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>닉네임 입력칸에 비운 상태에서 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이미 있는 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특수문자 포함된 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상적인 닉네임 입력후 생성 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>커스터마이징</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유료 옵션 제한</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터로 생성 시 환생 캐릭터 전용 커스터마이징 항목이 노출되지 않거나 선택 불가한지 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>해당 옵션은 비활성화되거나 잠금 표시가 되어 선택 불가능해야 함</t>
   </si>
   <si>
     <t>추가로 경고 메시지가 있으면 더 좋을 것 같다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pass</t>
@@ -181,35 +182,35 @@
   </si>
   <si>
     <t>1자 닉네임 입력 후 생성 시도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13자 이상 닉네임 입력후 생성 시도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중복된 닉네임이라는 경고 메시지를 출력하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>닉네임을 입력하라는 경고 메시지 또는 시각적 반응이 발생하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최소 입력 길이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최대 입력 길이 초과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터가 정상적으로 생성되고, 캐릭터 선택 화면으로 이동한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>High</t>
@@ -219,134 +220,134 @@
   </si>
   <si>
     <t>만들기 -&gt; 게임시작을 눌러야 중복여부 체크가 되는데 중복되지않으면 생성되는게 아니라 별다른 동작없이 바로 확인이 가능하면 좋을 것 같다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지와 함께 비활성화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특수문자 및 입력불가 단어 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지를 출력하며 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 UI 표시되며, 닉네임 설정 단계로 넘어갈 수 없다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>건너뛰기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이전 화면으로 되돌아온다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컷 씬 스킵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 화면을 길게 눌러 컷씬 스킵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중단 상황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>앱 종료후 재접속</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI 표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드 메시지 안내에 맞는 키를 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>메시지 안내에 맞는 입력을 수행하면 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>버튼 클릭 반응</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드 안내에 따라 UI 버튼을 클릭한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정상 반응하며 다음 단계로 진행된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전체 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>종료후 전환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼 진행 중 앱 강제 종료후 재접속</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컷신이 종료되고 다음 단계로 넘어간다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이전 진행된 곳 혹은 체크 포인트에서부터 재진행한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행 흐름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드하는 버튼외에 다른 키를 입력한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진행에 막힘없이 단계 유지/무시 처리한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>가이드 버튼 외 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구역 이탈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼 구역 외벽 방향 이동을 시도한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>벽막힘으로 이동 불가한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
     <t>정상적으로 티르코네일 마을에 진입하며 인게임 UI가 정상적으로 표시된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>튜토리얼을 모두 완료하고 컷신을 스킵하거나 모두 플레이한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전투 상황</t>
@@ -356,63 +357,63 @@
   </si>
   <si>
     <t>사망 처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사망 후 재시작하거나 사망에 관계없이 다음 단계를 진행한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>죽으면 즉시 부활하며, 자동으로 공격하는 상태가된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>플레이 힌트 스킵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>플레이 힌트 시작후 나중에 보기 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포탈 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포탈을 지나친다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>다음 맵으로 이동한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>경고 메시지 '2자 이상 입력해주세요'가 표기되며, 입력칸이 진동하며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>초과 입력시 경고 메시지가 표기되며, 캐릭터가 생성되지 않는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>특수 문자, 공백 안된다. Admin을 닉네임으로 사용이 거부된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Jira No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MMQA-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포탈이 아닌 영역으로 걸어도 포탈이 이동되는 효과를 갖는다. (포탈 위치한 X축 경계를 넘으면 이동됨)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC-18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC-28</t>
@@ -446,215 +447,215 @@
   </si>
   <si>
     <t>벌목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일반 채집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자동 채집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도구 자동 교체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 체력 초기화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>조건별 자동 채집 중단</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>벌목 도끼를 장비한다 -&gt; 채집 가능한 나무를 채집한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>인벤토리에서 통나무를 선택한다 -&gt; 구하는 방법, 나무베기 선택 -&gt; 자동 채집 시작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도끼를 장비한 상태에서 인벤토리에 내구도가 남은 도끼를 보유 -&gt; 장착한 도끼를 내구도 0까지 사용 -&gt; 계속 진행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채집 도중 이동 키를 입력해 중단 -&gt; 같은 나무 재시도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터가 나무 베는 애니메이션과 함께 채집이 시작되고 나무 체력이 0이되면 일정 확률로 내구도 감소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>나무 채집이 목표 횟수를 달성할 때 까지 자동으로 반복된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">내구도가 충분한 도끼로 자동으로 교체되고 채집을 계속한다. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>나무 체력이 초기화 되어 처움부터 다시 채집한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자동 채집이 즉시 중단되며, 채집 시작 버튼이 활성화된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채집 가능 오브젝트 표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채집 오브젝트 체력바 감소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채집 판정 텍스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>나무 근처로 캐릭터를 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채집을 진행하며 판정 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채집을 진행하며 체력바 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>플레이어와 가까운 채집 가능한 나무에 이름이 나타난다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 위에 체력바가 감소된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>확률에 따라 좋아, 훌륭해, 우와~, 손끝이 살아있네 등이 표기된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>낚시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자동 낚시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>낚시대를 장비하고 낙시터로 이동 -&gt; 자동 낚시로 설정 -&gt; 낚시 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자동으로 반복 낚시를 수행하며, 낚시 결과가 인벤토리에 반영된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>낚시 중단</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>미끼 소모</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>미끼를 장착 -&gt; 낚시 시작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">낚시중 이동 / 이동 키 입력 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자동 채집중 인벤토리 가득 채움 / 이동키 입력 / 채집 중단 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>자동 낚시가 중단된다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>낚시 1회당 미끼 1개가 소모된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내구도 소모 조건은 1회~N회 채집시 1소모되는 것 같다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내구도 20% 이하에 다다르면 경고 UI가 출력된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내구도 소모</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터가 나무 베는 애니메이션과 함께 채집이 시작되고 나무 체력이 0이되면 나무 등급에 맞는 아이템 획득</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3조건 모두 자동 채집이 정상 중단된다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기준</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기능의 핵심이며, 실패시 기능이 정상 작동하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI 및 표기 관련</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기능 핵심은 아니나 시스템,사용성과 밀접</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채집 기능이 동작하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내구도 소모안됨, 미끼 소모안됨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오브젝트 체력바 누락, 나무이름 미표기 등</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -671,7 +672,7 @@
       </rPr>
       <t>29</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1053,34 +1054,34 @@
   </si>
   <si>
     <t>던전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일반던전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>No Run</t>
   </si>
   <si>
     <t>입장 (경계값 0)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입장 (일반값)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>재화 부족 처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>더블 루팅 ON</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>더블 루팅 OFF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1097,7 +1098,7 @@
       </rPr>
       <t>, 잔액 0</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1114,7 +1115,7 @@
       </rPr>
       <t>igh</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1131,7 +1132,7 @@
       </rPr>
       <t xml:space="preserve"> 1F 1구역</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1148,15 +1149,15 @@
       </rPr>
       <t>4개 이상 보유 -&gt; 입장 버튼 클릭</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>은동전 3개보유 -&gt; 입장 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>은동전 3개 보유 -&gt; 입장 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1173,7 +1174,7 @@
       </rPr>
       <t xml:space="preserve"> 팝업, 입장 불가</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1190,15 +1191,15 @@
       </rPr>
       <t>0개 차감, 클리어 보상 2배</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>은동전 20개 이상 보유 -&gt;더블 루팅 도전 버튼(선택됨) 클릭 -&gt; 입장 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>은동전 10개 이상 보유 -&gt; 더블 루팅 도번 버튼 누르지 않고(도전) 입장 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1215,28 +1216,11 @@
       </rPr>
       <t>0개 차감, 클리어 보상 1배</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>알비 일반 1F 1구역</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>알비 일반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1F 2구역</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1253,11 +1237,11 @@
       </rPr>
       <t xml:space="preserve"> 매우 어려움 2F 3구역</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>파티</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1274,11 +1258,11 @@
       </rPr>
       <t xml:space="preserve"> 파티 구성 -&gt; 리더 입장</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>탈주 후 복귀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1295,51 +1279,51 @@
       </rPr>
       <t xml:space="preserve"> 강제 종료 -&gt; 재접속</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내부 플로우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컷신 스킵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사망 후 부활</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>클리어 등급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고양이 상인 등장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>심층 던전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제화 부족 처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>안정성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>네트워크 끊김 복구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>백그라운드 복귀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1356,11 +1340,11 @@
       </rPr>
       <t xml:space="preserve"> 복귀</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>파티 입장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1377,7 +1361,7 @@
       </rPr>
       <t xml:space="preserve"> 입장, 재화 차감</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1394,7 +1378,7 @@
       </rPr>
       <t xml:space="preserve"> 재생 -&gt; 스킵 버튼 클릭</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1411,7 +1395,7 @@
       </rPr>
       <t xml:space="preserve"> 종료, UI 표시</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1428,7 +1412,7 @@
       </rPr>
       <t xml:space="preserve"> HP 0 -&gt; 부활 버튼</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1445,7 +1429,7 @@
       </rPr>
       <t>, 부활 성공, 버프 초기화</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1462,7 +1446,7 @@
       </rPr>
       <t xml:space="preserve"> 클리어</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1479,7 +1463,7 @@
       </rPr>
       <t xml:space="preserve"> 등급으로 클리어</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1496,7 +1480,7 @@
       </rPr>
       <t xml:space="preserve"> 던전 진행</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1513,7 +1497,7 @@
       </rPr>
       <t>PC 등장, 거래가능, UI 표시</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1530,15 +1514,15 @@
       </rPr>
       <t xml:space="preserve"> 1개이상 보유 -&gt; 입장</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입장 성공, 1개 차감</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>입장 성공, 3개 차감</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1555,7 +1539,7 @@
       </rPr>
       <t>0개 -&gt; 입장</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1572,7 +1556,7 @@
       </rPr>
       <t xml:space="preserve"> 메시지, 입장 버튼 비활성화</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1589,7 +1573,7 @@
       </rPr>
       <t xml:space="preserve"> 비행기 모드 ON</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1606,7 +1590,7 @@
       </rPr>
       <t xml:space="preserve"> 재시도 메시지</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1623,7 +1607,7 @@
       </rPr>
       <t xml:space="preserve"> 진행 -&gt; 홈버튼 -&gt; 60초대기 -&gt; 복귀</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1640,7 +1624,7 @@
       </rPr>
       <t>UI 유지, 드랍 정상</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1657,22 +1641,76 @@
       </rPr>
       <t xml:space="preserve"> 1F 3구역</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남쪽 폐어 매우 어려움 2F 3구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알비 일반 1F 2구역
+상단에 은동전이 부족합니다. 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남쪽 폐어 매우 어려움 2F 3구역, Galaxy Quantum3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 플레이 가능하나 체험 저하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 진행에는 영향 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 걷는 모션이 느려짐(Jira No. MMQA - 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 연결이 끊긴후 던전 재입장 불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행이 완전히 막힘
+데이터 손실·재화 손실·결제 오류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 루팅을 켰으나 보상이 1배로 들어옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행을 막거나 차단하는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 플레이는 가능하지만 오류성 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경미한 표현 문제나 플레이 흐름에 영향 없는 이슈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈이 아닌공간에서 포탈 이동 효과(MMQA-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1자리 닉네임 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 종료후 티르코네일 진입이 안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,10 +1875,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1848,40 +1886,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1890,28 +1925,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1921,13 +1965,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2210,14 +2248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:K28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2273,10 +2311,10 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2306,8 +2344,8 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
@@ -2335,8 +2373,8 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
@@ -2362,8 +2400,8 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2391,8 +2429,8 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
@@ -2420,7 +2458,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
@@ -2449,7 +2487,7 @@
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2480,10 +2518,10 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2511,8 +2549,8 @@
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
@@ -2538,7 +2576,7 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
@@ -2567,8 +2605,8 @@
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2596,8 +2634,8 @@
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="5" t="s">
         <v>67</v>
       </c>
@@ -2623,7 +2661,7 @@
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
@@ -2652,8 +2690,8 @@
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2681,8 +2719,8 @@
       <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="5" t="s">
         <v>92</v>
       </c>
@@ -2698,7 +2736,7 @@
       <c r="I20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="14" t="s">
         <v>99</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -2712,8 +2750,8 @@
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
@@ -2739,7 +2777,7 @@
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="5" t="s">
         <v>85</v>
       </c>
@@ -2763,8 +2801,60 @@
         <v>89</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="C13:C22"/>
@@ -2772,12 +2862,12 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D19:D21"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2787,11 +2877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C18" sqref="C18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2845,19 +2935,19 @@
       <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>113</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>152</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -2872,15 +2962,15 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -2901,15 +2991,15 @@
       <c r="C7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>124</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -2928,15 +3018,15 @@
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>125</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -2957,15 +3047,15 @@
       <c r="C9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -2984,15 +3074,15 @@
       <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>127</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -3013,17 +3103,17 @@
       <c r="C11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="22" t="s">
         <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -3042,15 +3132,15 @@
       <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>136</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -3069,15 +3159,15 @@
       <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -3096,19 +3186,19 @@
       <c r="C14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="22" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>141</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -3127,15 +3217,15 @@
       <c r="C15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -3154,15 +3244,15 @@
       <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -3178,10 +3268,10 @@
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="5" t="s">
         <v>155</v>
       </c>
@@ -3190,11 +3280,11 @@
       <c r="C19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="12" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3202,11 +3292,11 @@
       <c r="C20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="12" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3214,11 +3304,11 @@
       <c r="C21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3234,12 +3324,12 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="D18:E18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3248,11 +3338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3303,177 +3393,177 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>189</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="26" t="s">
-        <v>201</v>
+      <c r="L8" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="26" t="s">
-        <v>201</v>
+      <c r="L9" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="H10" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3481,28 +3571,28 @@
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3510,275 +3600,287 @@
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>50</v>
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="26" t="s">
-        <v>201</v>
+      <c r="L12" s="15" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="26" t="s">
-        <v>201</v>
+      <c r="L13" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="27" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="26" t="s">
-        <v>201</v>
+      <c r="L14" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="26" t="s">
-        <v>201</v>
+      <c r="L15" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="26" t="s">
-        <v>237</v>
+      <c r="L16" s="15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="26" t="s">
-        <v>237</v>
+      <c r="L17" s="15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J18" s="11" t="s">
+      <c r="I18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L18" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="11" t="s">
+      <c r="I19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="26" t="s">
-        <v>201</v>
+      <c r="L19" s="27" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="13"/>
+      <c r="D22" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="13" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="23" spans="2:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="13"/>
+      <c r="D23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="13" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="24" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="13" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3793,12 +3895,12 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="D21:E21"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMTestCase.xlsx
+++ b/MMTestCase.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haeseong\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75363C-70CE-43CF-8BA9-28930AD6C278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터생성 및 튜토리얼" sheetId="1" r:id="rId1"/>
     <sheet name="채집" sheetId="2" r:id="rId2"/>
     <sheet name="던전" sheetId="5" r:id="rId3"/>
+    <sheet name="장비 시스템" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="345">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1703,13 +1703,367 @@
   </si>
   <si>
     <t>튜토리얼 종료후 티르코네일 진입이 안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재현스탭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jira No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TC-45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬 파편을 충분히 보유한 상태에서 장비를 선택하고 강화 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬 강화 수치가 증가하며 UI에 반영되고 룬파편, 골드가 소모된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-46</t>
+  </si>
+  <si>
+    <t>실패 확률이 존재하는 룬 강화 수치에서, 룬강화 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 시 장비가 저주받으면서 실패 이펙트 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-47</t>
+  </si>
+  <si>
+    <t>룬 강화 도중에 직전에 강제 종료 -&gt; 재접속후 강화상태 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 결과와 소모 재료가 정상 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-48</t>
+  </si>
+  <si>
+    <t>각인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각인되지 않은 장비에 새룬으로 각인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비에 룬이 적용되며 룬이 소모된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-49</t>
+  </si>
+  <si>
+    <t>이미 각인된 장비에  룬으로 각인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 룬은 정령의 흔적과 룬 파편으로 분해되고 기존 룬이 에픽 이상일 경우 기존 룬이 분해 된다는 경고 메시지 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 추가결과물로 기존 룬 분해 결과물을 표시한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-50</t>
+  </si>
+  <si>
+    <t>분해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 룬을 선택 -&gt; 분해 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬 소멸, 정령의 흔적과 파편 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-51</t>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 룬을 선택 -&gt; 판매 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 메시지와 함께 해당되는 룬의 가격의 골드를 얻는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-52</t>
+  </si>
+  <si>
+    <t>각인 재설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간 이동 -&gt; 각인 재설정 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재설정 프리즘이 소모되며 옵션이 무작위 변경됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-53</t>
+  </si>
+  <si>
+    <t>개조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간 이동 -&gt; 개조버튼 클릭 -&gt; 개조 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 스킬이 무작위로 3개가 선정되고 개지 비용만큼 보유골드가 차감된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>MMQA - 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 무작위 3개선택은 적용되지만 상단 보유골드가 차감되지않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-54</t>
+  </si>
+  <si>
+    <t>개조 결과로 강화수치가 변경되어 색상이 맞게 조정된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-55</t>
+  </si>
+  <si>
+    <t>합성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일 등급 룬 3개를 재료로 선택후 합성 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 확률로 상위 룬 생성되며 실패시 모두 소멸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-56</t>
+  </si>
+  <si>
+    <t>보석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투박한 다이아몬드와 투박한 흑요석 선택후 합성 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투박한 다크라이트 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-57</t>
+  </si>
+  <si>
+    <t>승급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일 종류, 등급 보석 3개 선택 후 승급 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 등급 보석 1개를 얻고 기존 보석은 소멸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-58</t>
+  </si>
+  <si>
+    <t>장비에 보석 장착 -&gt; 장비 분해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석, 정령의 흔적, 룬 파편 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-59</t>
+  </si>
+  <si>
+    <t>세공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투박한 스타프리즘 보석 선택 -&gt; 보석 스킬 세공기가 없는 상태에서 세공 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 메시지를 출력하고, 세공 불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 비활성화, 아이템이 부족합니다 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-60</t>
+  </si>
+  <si>
+    <t>투박한 스타 프리즘 이상 보석 선택 -&gt; 세공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 태그가 변경됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-61</t>
+  </si>
+  <si>
+    <t>장착 / 교체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 홈에 A 보석 장착 후 같은 홈 클릭 -&gt; 보석 B로 교체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 A는 인벤토리로 돌아오고, 보석 B는 홈에 장착됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-62</t>
+  </si>
+  <si>
+    <t>장착 / 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 보석 홈에  보석 장착 -&gt; 다시 홈을 클릭해 제거 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석이 인벤토리로 이동되며, 홈이 비워짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 시스템 흐름을 차단하거나 재화 손실이 명확함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재설정 프리즘을 소모해 재설정했으나 아무일도 일어나지않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 시 일시적 불편이나 혼동 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석이 제거가 안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 빈도가 낮고 재화 손실이 거의 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조로 인해 스킬이 30레벨이 되었는데 주황색이아닌 보라색으로 표기됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비
+시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1882,7 +2236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,6 +2289,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1946,9 +2318,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,14 +2327,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2248,10 +2632,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -2311,10 +2695,10 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2344,8 +2728,8 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
@@ -2373,8 +2757,8 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
@@ -2400,8 +2784,8 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2429,8 +2813,8 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
@@ -2458,7 +2842,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
@@ -2487,7 +2871,7 @@
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2521,7 +2905,7 @@
       <c r="C13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2550,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
@@ -2606,7 +2990,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2635,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="5" t="s">
         <v>67</v>
       </c>
@@ -2691,7 +3075,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2720,7 +3104,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="5" t="s">
         <v>92</v>
       </c>
@@ -2751,7 +3135,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
@@ -2817,10 +3201,10 @@
       <c r="B26" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="13" t="s">
         <v>251</v>
       </c>
@@ -2829,10 +3213,10 @@
       <c r="B27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="12" t="s">
         <v>250</v>
       </c>
@@ -2841,10 +3225,10 @@
       <c r="B28" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="13" t="s">
         <v>249</v>
       </c>
@@ -2864,10 +3248,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2877,7 +3261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,10 +3319,10 @@
       <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2962,8 +3346,8 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="5" t="s">
         <v>151</v>
       </c>
@@ -2991,8 +3375,8 @@
       <c r="C7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="5" t="s">
         <v>115</v>
       </c>
@@ -3018,8 +3402,8 @@
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="5" t="s">
         <v>116</v>
       </c>
@@ -3047,8 +3431,8 @@
       <c r="C9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="5" t="s">
         <v>117</v>
       </c>
@@ -3074,8 +3458,8 @@
       <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="5" t="s">
         <v>118</v>
       </c>
@@ -3103,8 +3487,8 @@
       <c r="C11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="27" t="s">
         <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -3132,8 +3516,8 @@
       <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="5" t="s">
         <v>130</v>
       </c>
@@ -3159,8 +3543,8 @@
       <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="5" t="s">
         <v>131</v>
       </c>
@@ -3186,10 +3570,10 @@
       <c r="C14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -3217,8 +3601,8 @@
       <c r="C15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="5" t="s">
         <v>142</v>
       </c>
@@ -3244,8 +3628,8 @@
       <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="5" t="s">
         <v>143</v>
       </c>
@@ -3280,10 +3664,10 @@
       <c r="C19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
         <v>162</v>
       </c>
@@ -3292,10 +3676,10 @@
       <c r="C20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="12" t="s">
         <v>163</v>
       </c>
@@ -3304,10 +3688,10 @@
       <c r="C21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="13" t="s">
         <v>164</v>
       </c>
@@ -3326,10 +3710,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3338,7 +3722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -3396,10 +3780,10 @@
       <c r="C5" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="30" t="s">
         <v>181</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -3427,8 +3811,8 @@
       <c r="C6" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="14" t="s">
         <v>184</v>
       </c>
@@ -3456,8 +3840,8 @@
       <c r="C7" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="14" t="s">
         <v>185</v>
       </c>
@@ -3474,7 +3858,7 @@
         <v>51</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="20" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3485,8 +3869,8 @@
       <c r="C8" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="14" t="s">
         <v>186</v>
       </c>
@@ -3514,8 +3898,8 @@
       <c r="C9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="14" t="s">
         <v>187</v>
       </c>
@@ -3543,8 +3927,8 @@
       <c r="C10" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
         <v>201</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -3574,8 +3958,8 @@
       <c r="C11" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="14" t="s">
         <v>203</v>
       </c>
@@ -3603,8 +3987,8 @@
       <c r="C12" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>205</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -3634,8 +4018,8 @@
       <c r="C13" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="14" t="s">
         <v>207</v>
       </c>
@@ -3663,8 +4047,8 @@
       <c r="C14" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="14" t="s">
         <v>208</v>
       </c>
@@ -3692,8 +4076,8 @@
       <c r="C15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="14" t="s">
         <v>209</v>
       </c>
@@ -3721,8 +4105,8 @@
       <c r="C16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="s">
         <v>210</v>
       </c>
       <c r="F16" s="14" t="s">
@@ -3752,8 +4136,8 @@
       <c r="C17" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="14" t="s">
         <v>212</v>
       </c>
@@ -3781,8 +4165,8 @@
       <c r="C18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30" t="s">
         <v>213</v>
       </c>
       <c r="F18" s="14" t="s">
@@ -3812,8 +4196,8 @@
       <c r="C19" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="14" t="s">
         <v>215</v>
       </c>
@@ -3830,7 +4214,7 @@
         <v>51</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="20" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3850,10 +4234,10 @@
       <c r="C22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="13" t="s">
         <v>245</v>
       </c>
@@ -3862,10 +4246,10 @@
       <c r="C23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="13" t="s">
         <v>243</v>
       </c>
@@ -3874,10 +4258,10 @@
       <c r="C24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="13" t="s">
         <v>242</v>
       </c>
@@ -3897,14 +4281,634 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="66.875" customWidth="1"/>
+    <col min="8" max="8" width="52.25" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="44.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="C25" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="E5:E15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E16:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I22">
+      <formula1>"Pass, Fail, N/A, No Run"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MMTestCase.xlsx
+++ b/MMTestCase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haeseong\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB3383E-E6BD-4C75-8097-EBBC0CEDED0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3"/>
+    <workbookView xWindow="1740" yWindow="2130" windowWidth="23010" windowHeight="13590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터생성 및 튜토리얼" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="344">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1059,9 +1060,6 @@
   <si>
     <t>일반던전</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Run</t>
   </si>
   <si>
     <t>입장 (경계값 0)</t>
@@ -2063,7 +2061,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2236,7 +2234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2288,17 +2286,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2329,9 +2321,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2632,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2695,10 +2684,10 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2728,8 +2717,8 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
@@ -2757,8 +2746,8 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
@@ -2784,8 +2773,8 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2813,8 +2802,8 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
@@ -2842,7 +2831,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
@@ -2871,7 +2860,7 @@
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2902,10 +2891,10 @@
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2933,8 +2922,8 @@
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
@@ -2960,7 +2949,7 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
@@ -2989,8 +2978,8 @@
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -3018,8 +3007,8 @@
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="5" t="s">
         <v>67</v>
       </c>
@@ -3045,7 +3034,7 @@
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="5" t="s">
         <v>70</v>
       </c>
@@ -3074,8 +3063,8 @@
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -3103,8 +3092,8 @@
       <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="5" t="s">
         <v>92</v>
       </c>
@@ -3134,8 +3123,8 @@
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
@@ -3161,7 +3150,7 @@
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="5" t="s">
         <v>85</v>
       </c>
@@ -3189,10 +3178,10 @@
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="5" t="s">
         <v>155</v>
       </c>
@@ -3201,36 +3190,36 @@
       <c r="B26" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="22"/>
+      <c r="C26" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="20"/>
       <c r="E26" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="22"/>
+      <c r="C27" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="20"/>
       <c r="E27" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="13" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3248,10 +3237,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I22" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3261,7 +3250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,10 +3308,10 @@
       <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>113</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -3346,8 +3335,8 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="5" t="s">
         <v>151</v>
       </c>
@@ -3375,8 +3364,8 @@
       <c r="C7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="5" t="s">
         <v>115</v>
       </c>
@@ -3402,8 +3391,8 @@
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="5" t="s">
         <v>116</v>
       </c>
@@ -3431,8 +3420,8 @@
       <c r="C9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="5" t="s">
         <v>117</v>
       </c>
@@ -3458,8 +3447,8 @@
       <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="5" t="s">
         <v>118</v>
       </c>
@@ -3487,8 +3476,8 @@
       <c r="C11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="25" t="s">
         <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -3516,8 +3505,8 @@
       <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="5" t="s">
         <v>130</v>
       </c>
@@ -3543,8 +3532,8 @@
       <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="5" t="s">
         <v>131</v>
       </c>
@@ -3570,10 +3559,10 @@
       <c r="C14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -3601,8 +3590,8 @@
       <c r="C15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="5" t="s">
         <v>142</v>
       </c>
@@ -3628,8 +3617,8 @@
       <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="5" t="s">
         <v>143</v>
       </c>
@@ -3652,10 +3641,10 @@
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5" t="s">
         <v>155</v>
       </c>
@@ -3664,10 +3653,10 @@
       <c r="C19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="12" t="s">
         <v>162</v>
       </c>
@@ -3676,10 +3665,10 @@
       <c r="C20" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="12" t="s">
         <v>163</v>
       </c>
@@ -3688,10 +3677,10 @@
       <c r="C21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="13" t="s">
         <v>164</v>
       </c>
@@ -3710,10 +3699,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3722,11 +3711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3780,30 +3769,30 @@
       <c r="C5" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>181</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H5" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -3811,16 +3800,16 @@
       <c r="C6" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>38</v>
@@ -3830,7 +3819,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3840,16 +3829,16 @@
       <c r="C7" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>38</v>
@@ -3858,8 +3847,8 @@
         <v>51</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="20" t="s">
-        <v>238</v>
+      <c r="L7" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3869,16 +3858,16 @@
       <c r="C8" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>38</v>
@@ -3888,7 +3877,7 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -3898,16 +3887,16 @@
       <c r="C9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>38</v>
@@ -3917,7 +3906,7 @@
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -3927,18 +3916,18 @@
       <c r="C10" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="H10" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>38</v>
@@ -3948,7 +3937,7 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -3958,16 +3947,16 @@
       <c r="C11" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>204</v>
-      </c>
       <c r="H11" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>38</v>
@@ -3977,7 +3966,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -3987,18 +3976,18 @@
       <c r="C12" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>206</v>
-      </c>
       <c r="G12" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>38</v>
@@ -4008,7 +3997,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -4018,16 +4007,16 @@
       <c r="C13" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>38</v>
@@ -4037,7 +4026,7 @@
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -4047,16 +4036,16 @@
       <c r="C14" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>38</v>
@@ -4066,7 +4055,7 @@
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -4076,16 +4065,16 @@
       <c r="C15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>225</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>226</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>38</v>
@@ -4095,7 +4084,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -4105,18 +4094,18 @@
       <c r="C16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>211</v>
-      </c>
       <c r="G16" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>38</v>
@@ -4126,7 +4115,7 @@
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -4136,26 +4125,26 @@
       <c r="C17" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G17" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>231</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -4165,18 +4154,18 @@
       <c r="C18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="G18" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>233</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>38</v>
@@ -4186,7 +4175,7 @@
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4196,16 +4185,16 @@
       <c r="C19" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>38</v>
@@ -4214,18 +4203,18 @@
         <v>51</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="20" t="s">
-        <v>239</v>
+      <c r="L19" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="5" t="s">
         <v>155</v>
       </c>
@@ -4234,36 +4223,36 @@
       <c r="C22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="13" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="D23" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="13" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4281,10 +4270,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J19" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4294,10 +4283,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4315,65 +4304,65 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>262</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="7"/>
@@ -4383,22 +4372,22 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="7"/>
@@ -4408,22 +4397,22 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="7"/>
@@ -4433,24 +4422,24 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>50</v>
       </c>
       <c r="K8" s="7"/>
@@ -4460,51 +4449,51 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="7"/>
@@ -4514,24 +4503,24 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="19" t="s">
+      <c r="G11" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>82</v>
       </c>
       <c r="K11" s="7"/>
@@ -4541,24 +4530,24 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="7"/>
@@ -4568,51 +4557,51 @@
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="H13" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="J13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="15" t="s">
+      <c r="L13" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="19" t="s">
+      <c r="I14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>82</v>
       </c>
       <c r="K14" s="7"/>
@@ -4622,24 +4611,24 @@
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="19" t="s">
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>50</v>
       </c>
       <c r="K15" s="7"/>
@@ -4649,26 +4638,26 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="30" t="s">
+      <c r="F16" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="19" t="s">
+      <c r="I16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K16" s="7"/>
@@ -4678,24 +4667,24 @@
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="19" t="s">
+      <c r="I17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>50</v>
       </c>
       <c r="K17" s="7"/>
@@ -4705,80 +4694,80 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="19" t="s">
+      <c r="I18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="19" t="s">
+      <c r="G19" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="19" t="s">
+      <c r="I19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>50</v>
       </c>
       <c r="K20" s="7"/>
@@ -4788,24 +4777,24 @@
       <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="19" t="s">
+      <c r="G21" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="H21" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="19" t="s">
+      <c r="I21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K21" s="7"/>
@@ -4815,97 +4804,97 @@
       <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="19" t="s">
+      <c r="G22" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>51</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="15"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="17" t="s">
+    </row>
+    <row r="25" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="C25" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="18" t="s">
+    </row>
+    <row r="26" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="18" t="s">
+    </row>
+    <row r="27" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="18" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E16:E22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D5:D22"/>
     <mergeCell ref="E5:E15"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E16:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J22" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I22" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Pass, Fail, N/A, No Run"</formula1>
     </dataValidation>
   </dataValidations>
